--- a/app/src/main/res/raw/region_form.xlsx
+++ b/app/src/main/res/raw/region_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500"/>
+    <workbookView windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>group</t>
   </si>
@@ -66,6 +66,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -157,6 +160,15 @@
   </si>
   <si>
     <t>1.6. Date de Collecte</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -228,14 +240,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,45 +315,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,24 +352,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,30 +367,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,187 +397,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,30 +610,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -642,13 +630,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +671,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -677,184 +689,192 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1170,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1189,10 +1209,11 @@
     <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
     <col min="12" max="12" width="23.7142857142857" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="15" max="15" width="16.5714285714286" customWidth="1"/>
+    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1241,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1235,34 +1256,37 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -1272,25 +1296,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1300,51 +1324,51 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -1352,27 +1376,27 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1382,25 +1406,25 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1408,51 +1432,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" t="b">
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N8" t="b">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1"/>
@@ -1486,6 +1542,9 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1514,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1551,35 +1610,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/region_form.xlsx
+++ b/app/src/main/res/raw/region_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -138,13 +138,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>1.5. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>1.5. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>1.5. Code de l'Enquêteur</t>
+    <t>Collected By Fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -153,13 +153,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>1.6. Collected Date</t>
-  </si>
-  <si>
-    <t>1.6. Data da Visita</t>
-  </si>
-  <si>
-    <t>1.6. Date de Collecte</t>
+    <t>Collected Date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de Collecte</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -218,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -229,6 +229,149 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -238,149 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -397,19 +397,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,170 +581,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -608,6 +608,77 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -626,30 +697,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +727,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -706,175 +768,189 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1193,7 +1269,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A6" sqref="$A6:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1241,7 +1317,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1256,13 +1332,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1285,8 +1361,8 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -1313,8 +1389,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1341,8 +1417,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1363,77 +1439,77 @@
       <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:14">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" t="b">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N6" t="b">
+      <c r="N6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="4" customFormat="1" spans="1:14">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" t="b">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N7" t="b">
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="4" customFormat="1" spans="1:17">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4"/>
@@ -1444,19 +1520,19 @@
       <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="b">
         <v>1</v>
@@ -1467,48 +1543,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:14">
+      <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" t="b">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N9" t="b">
+      <c r="N9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1"/>

--- a/app/src/main/res/raw/region_form.xlsx
+++ b/app/src/main/res/raw/region_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>group</t>
   </si>
@@ -102,28 +102,40 @@
     <t>header2</t>
   </si>
   <si>
+    <t>regionLevel</t>
+  </si>
+  <si>
+    <t>1.3. Region Hierarchy Level</t>
+  </si>
+  <si>
+    <t>1.3. Nível de Hierarquia da Região</t>
+  </si>
+  <si>
+    <t>1.3. Niveau de Hiérarchie de la Région</t>
+  </si>
+  <si>
     <t>regionName</t>
   </si>
   <si>
-    <t>1.3. Region Name</t>
-  </si>
-  <si>
-    <t>1.3. Nome da Região</t>
-  </si>
-  <si>
-    <t>1.3. Nom de la Région</t>
+    <t>1.4. Region Name</t>
+  </si>
+  <si>
+    <t>1.4. Nome da Região</t>
+  </si>
+  <si>
+    <t>1.4. Nom de la Région</t>
   </si>
   <si>
     <t>regionCode</t>
   </si>
   <si>
-    <t>1.4. Region Code</t>
-  </si>
-  <si>
-    <t>1.4. Código da Região</t>
-  </si>
-  <si>
-    <t>1.4. Code de la Région</t>
+    <t>1.5. Region Code</t>
+  </si>
+  <si>
+    <t>1.5. Código da Região</t>
+  </si>
+  <si>
+    <t>1.5. Code de la Région</t>
   </si>
   <si>
     <t>call:generateRegionCode(${parentCode},${regionName})</t>
@@ -218,9 +230,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -239,6 +251,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -254,6 +280,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -262,7 +303,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,14 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -291,96 +393,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -397,25 +409,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,25 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,127 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +684,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +702,62 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -700,216 +777,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1281,7 +1293,8 @@
     <col min="6" max="6" width="9.72380952380952" customWidth="1"/>
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="44.7238095238095" customWidth="1"/>
-    <col min="9" max="10" width="32.4571428571429" customWidth="1"/>
+    <col min="9" max="9" width="32.4571428571429" customWidth="1"/>
+    <col min="10" max="10" width="36.1428571428571" customWidth="1"/>
     <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
     <col min="12" max="12" width="23.7142857142857" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
@@ -1398,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1422,6 +1435,9 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -1439,142 +1455,157 @@
       <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="L5" s="12"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:14">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="J6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:14">
+      <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="3" t="b">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="3" t="b">
+      <c r="N7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:14">
-      <c r="A7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="2" t="s">
+    <row r="8" s="4" customFormat="1" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:17">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>50</v>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="N8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="b">
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:17">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:14">
-      <c r="A9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="Q9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="5" t="b">
+      <c r="H10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="5" t="b">
+      <c r="N10" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
@@ -1583,11 +1614,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1"/>
@@ -1621,6 +1654,9 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1649,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1686,35 +1722,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/region_form.xlsx
+++ b/app/src/main/res/raw/region_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="19485" windowHeight="7560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>group</t>
   </si>
@@ -105,37 +105,34 @@
     <t>regionLevel</t>
   </si>
   <si>
-    <t>1.3. Region Hierarchy Level</t>
-  </si>
-  <si>
-    <t>1.3. Nível de Hierarquia da Região</t>
-  </si>
-  <si>
-    <t>1.3. Niveau de Hiérarchie de la Région</t>
+    <t>1.3. Hierarchy Level</t>
+  </si>
+  <si>
+    <t>1.3. Nível de Hierarquia</t>
+  </si>
+  <si>
+    <t>1.3. Niveau de Hiérarchie</t>
   </si>
   <si>
     <t>regionName</t>
   </si>
   <si>
-    <t>1.4. Region Name</t>
-  </si>
-  <si>
-    <t>1.4. Nome da Região</t>
-  </si>
-  <si>
-    <t>1.4. Nom de la Région</t>
+    <t>1.4. Name</t>
+  </si>
+  <si>
+    <t>1.4. Nome</t>
+  </si>
+  <si>
+    <t>1.4. Nom</t>
   </si>
   <si>
     <t>regionCode</t>
   </si>
   <si>
-    <t>1.5. Region Code</t>
-  </si>
-  <si>
-    <t>1.5. Código da Região</t>
-  </si>
-  <si>
-    <t>1.5. Code de la Région</t>
+    <t>1.5. Code</t>
+  </si>
+  <si>
+    <t>1.5. Código</t>
   </si>
   <si>
     <t>call:generateRegionCode(${parentCode},${regionName})</t>
@@ -213,7 +210,7 @@
     <t>rawRegion</t>
   </si>
   <si>
-    <t>Add New Region</t>
+    <t>Add New Region Hierarchy</t>
   </si>
   <si>
     <t>Adicionar nova Região</t>
@@ -230,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,6 +240,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -250,6 +255,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -258,7 +310,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,53 +370,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,44 +390,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -409,13 +406,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,55 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,61 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,42 +587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,33 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -737,6 +707,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -762,166 +774,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,7 +1278,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1481,11 +1478,11 @@
         <v>38</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -1493,24 +1490,24 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:14">
       <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -1523,22 +1520,22 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:14">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1551,24 +1548,24 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1581,22 +1578,22 @@
     </row>
     <row r="10" s="5" customFormat="1" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -1685,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1709,48 +1706,48 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="23.8" customWidth="1"/>
     <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
     <col min="4" max="4" width="32.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/region_form.xlsx
+++ b/app/src/main/res/raw/region_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7560" tabRatio="500"/>
+    <workbookView windowWidth="22770" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -210,13 +210,13 @@
     <t>rawRegion</t>
   </si>
   <si>
-    <t>Add New Region Hierarchy</t>
-  </si>
-  <si>
-    <t>Adicionar nova Região</t>
-  </si>
-  <si>
-    <t>Enregistrement d'un nouvel Région</t>
+    <t>Add New [${form_title}]</t>
+  </si>
+  <si>
+    <t>Adicionar nova [${title}]</t>
+  </si>
+  <si>
+    <t>Enregistrement d'un nouvel [${title}]</t>
   </si>
   <si>
     <t>a</t>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,6 +238,149 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -247,149 +390,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -406,187 +406,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,6 +677,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -688,21 +721,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,40 +743,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -777,148 +777,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1705,8 +1705,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/region_form.xlsx
+++ b/app/src/main/res/raw/region_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>group</t>
   </si>
@@ -48,6 +48,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>1.1. Code de la Région parente</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የወላጅ አካባቢ ኮድ  </t>
+  </si>
+  <si>
     <t>parentName</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>1.2. Nom de la Région parente</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የወላጅ አካባቢ ስም  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -114,6 +123,9 @@
     <t>1.3. Niveau de Hiérarchie</t>
   </si>
   <si>
+    <t xml:space="preserve">1.3. የደረጃ ደረጃ  </t>
+  </si>
+  <si>
     <t>regionName</t>
   </si>
   <si>
@@ -126,6 +138,9 @@
     <t>1.4. Nom</t>
   </si>
   <si>
+    <t xml:space="preserve">1.4. ስም  </t>
+  </si>
+  <si>
     <t>regionCode</t>
   </si>
   <si>
@@ -135,6 +150,9 @@
     <t>1.5. Código</t>
   </si>
   <si>
+    <t xml:space="preserve">1.5. ኮድ  </t>
+  </si>
+  <si>
     <t>call:generateRegionCode(${parentCode},${regionName})</t>
   </si>
   <si>
@@ -156,6 +174,9 @@
     <t>Code de l'Enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመሰብሰቢያ ሰራተኛ የተሰበሰበ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -171,6 +192,9 @@
     <t>Date de Collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">የተሰበሰበበት ቀን  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -180,6 +204,9 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -192,6 +219,9 @@
     <t>Accès aux Modules autorisé</t>
   </si>
   <si>
+    <t>ለሞጁሎች የተሰጠ መዳረሻ</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -207,16 +237,22 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawRegion</t>
   </si>
   <si>
     <t>Add New [${form_title}]</t>
   </si>
   <si>
-    <t>Adicionar nova [${title}]</t>
-  </si>
-  <si>
-    <t>Enregistrement d'un nouvel [${title}]</t>
+    <t>Adicionar nova [${form_title}]</t>
+  </si>
+  <si>
+    <t>Enregistrement d'un nouvel [${form_title}]</t>
+  </si>
+  <si>
+    <t>አዲስ [${form_title}] ያክሉ</t>
   </si>
   <si>
     <t>a</t>
@@ -228,9 +264,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -240,6 +276,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -247,6 +291,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -254,8 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +352,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,19 +381,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,35 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -353,28 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -382,14 +426,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -406,19 +442,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +520,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,67 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,94 +626,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -664,28 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -725,21 +724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -766,6 +750,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -777,184 +785,188 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1275,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1292,14 +1304,15 @@
     <col min="8" max="8" width="44.7238095238095" customWidth="1"/>
     <col min="9" max="9" width="32.4571428571429" customWidth="1"/>
     <col min="10" max="10" width="36.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
-    <col min="12" max="12" width="23.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5714285714286" customWidth="1"/>
-    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="30.2" customWidth="1"/>
+    <col min="12" max="12" width="21.7238095238095" customWidth="1"/>
+    <col min="13" max="13" width="23.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="16.5714285714286" customWidth="1"/>
+    <col min="17" max="17" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1340,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1342,282 +1355,315 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" t="b">
+        <v>39</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="b">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:14">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="3" t="b">
+    <row r="7" s="4" customFormat="1" spans="1:15">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="3" t="b">
+      <c r="O7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:14">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:15">
+      <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="4" t="b">
+      <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="4" t="b">
+      <c r="O8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:17">
-      <c r="A9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>53</v>
+    <row r="9" s="5" customFormat="1" spans="1:18">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="N9" s="4" t="b">
+        <v>61</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="O9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="4" t="b">
+      <c r="R9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:14">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="5" t="b">
+    <row r="10" s="6" customFormat="1" spans="1:15">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="5" t="b">
+      <c r="O10" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1"/>
@@ -1682,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1706,7 +1752,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -1714,40 +1760,47 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23.8" customWidth="1"/>
     <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
-    <col min="4" max="4" width="32.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="38.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="29.047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
